--- a/plantillaHPV/cronogramaTaller.xlsx
+++ b/plantillaHPV/cronogramaTaller.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="0" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="0" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Buitrago\Downloads\plantillaHPV\plantillaHPV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HPV2018\plantillaHPV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1333,20 +1333,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>504338</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>146756</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1365,8 +1365,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1685925" y="133350"/>
-          <a:ext cx="7571888" cy="823031"/>
+          <a:off x="171450" y="0"/>
+          <a:ext cx="10058400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1603,7 +1603,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="DIA" colHeaderCaption="HORARIO">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="DIA" colHeaderCaption="HORARIO">
   <location ref="A10:C13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0"/>
@@ -2198,11 +2198,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ13"/>
+  <dimension ref="A1:BK13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2260,7 +2260,7 @@
     <col min="62" max="62" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="6"/>
@@ -2269,8 +2269,63 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="6"/>
@@ -2279,8 +2334,63 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="6"/>
@@ -2289,8 +2399,63 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="6"/>
@@ -2299,8 +2464,63 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="6"/>
@@ -2309,8 +2529,63 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="6"/>
@@ -2319,8 +2594,63 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="6"/>
@@ -2329,8 +2659,63 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
     </row>
-    <row r="8" spans="1:62" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:63" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
@@ -2395,8 +2780,9 @@
       <c r="BH8" s="2"/>
       <c r="BI8" s="2"/>
       <c r="BJ8" s="2"/>
+      <c r="BK8" s="3"/>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="6"/>
@@ -2406,7 +2792,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
       <c r="O12" s="12" t="s">
         <v>6</v>
       </c>
@@ -2472,7 +2858,7 @@
       <c r="BI12" s="13"/>
       <c r="BJ12" s="14"/>
     </row>
-    <row r="13" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C13" s="7"/>
       <c r="O13" s="9"/>
       <c r="P13" s="10"/>

--- a/plantillaHPV/cronogramaTaller.xlsx
+++ b/plantillaHPV/cronogramaTaller.xlsx
@@ -1334,19 +1334,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1365,7 +1365,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="0"/>
+          <a:off x="0" y="0"/>
           <a:ext cx="10058400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
